--- a/2022-09-26T14:41:40.819604EnhancedExcel.xlsx
+++ b/2022-09-26T14:41:40.819604EnhancedExcel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasvince/Documents/Munka/ExcelToXml/2022-09-26T14:41:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD5664-3552-F049-9216-999D5C6E8C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B931F-C9EB-8142-B769-DF4104B9D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{237A7D24-C9DB-CC41-B077-1D40B19F2906}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{237A7D24-C9DB-CC41-B077-1D40B19F2906}"/>
   </bookViews>
   <sheets>
     <sheet name="feleletválasztó" sheetId="1" r:id="rId1"/>
-    <sheet name="vmi" sheetId="2" r:id="rId2"/>
+    <sheet name="igaz-hamis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460EB52C-8485-064A-80B1-C4103290D715}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCD4298-3ADA-8A42-91C7-C3EFA6B75294}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
